--- a/data.xlsx
+++ b/data.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CASY_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Et" sheetId="1" r:id="rId1"/>
+    <sheet name="Ga" sheetId="2" r:id="rId2"/>
+    <sheet name="Gl" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="149">
   <si>
     <t>file_name</t>
   </si>
@@ -25,123 +27,174 @@
     <t>cells_per_ml</t>
   </si>
   <si>
-    <t>E10</t>
+    <t>Et10</t>
   </si>
   <si>
     <t>4.51</t>
   </si>
   <si>
-    <t>E11</t>
+    <t>Et11</t>
   </si>
   <si>
     <t>4.62</t>
   </si>
   <si>
-    <t>E12</t>
+    <t>Et12</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>Et13</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>Et14</t>
+  </si>
+  <si>
+    <t>Et15</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>Et16</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>Et17</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>Et20</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>Et21</t>
   </si>
   <si>
     <t>4.73</t>
   </si>
   <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>E22</t>
+    <t>Et22</t>
   </si>
   <si>
     <t>4.53</t>
   </si>
   <si>
-    <t>E23</t>
+    <t>Et23</t>
   </si>
   <si>
     <t>4.59</t>
   </si>
   <si>
-    <t>E24</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
+    <t>Et24</t>
+  </si>
+  <si>
+    <t>Et25</t>
+  </si>
+  <si>
+    <t>Et26</t>
   </si>
   <si>
     <t>4.71</t>
   </si>
   <si>
-    <t>E27</t>
+    <t>Et27</t>
   </si>
   <si>
     <t>4.49</t>
   </si>
   <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E32</t>
-  </si>
-  <si>
-    <t>E33</t>
+    <t>Et30</t>
+  </si>
+  <si>
+    <t>Et31</t>
+  </si>
+  <si>
+    <t>Et32</t>
+  </si>
+  <si>
+    <t>Et33</t>
   </si>
   <si>
     <t>4.84</t>
   </si>
   <si>
-    <t>E34</t>
+    <t>Et34</t>
   </si>
   <si>
     <t>4.80</t>
   </si>
   <si>
-    <t>E35</t>
-  </si>
-  <si>
-    <t>E36</t>
-  </si>
-  <si>
-    <t>E37</t>
+    <t>Et35</t>
+  </si>
+  <si>
+    <t>Et36</t>
+  </si>
+  <si>
+    <t>Et37</t>
   </si>
   <si>
     <t>4.60</t>
   </si>
   <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Ga10</t>
   </si>
   <si>
-    <t>4.82</t>
-  </si>
-  <si>
     <t>Ga11</t>
   </si>
   <si>
@@ -154,9 +207,6 @@
     <t>Ga13</t>
   </si>
   <si>
-    <t>4.64</t>
-  </si>
-  <si>
     <t>Ga14</t>
   </si>
   <si>
@@ -250,7 +300,34 @@
     <t>Ga37</t>
   </si>
   <si>
-    <t>4.44</t>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>Ga31</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>4.37</t>
+  </si>
+  <si>
+    <t>4.36</t>
   </si>
   <si>
     <t>Gl10</t>
@@ -280,9 +357,6 @@
     <t>Gl14</t>
   </si>
   <si>
-    <t>4.89</t>
-  </si>
-  <si>
     <t>Gl15</t>
   </si>
   <si>
@@ -310,9 +384,6 @@
     <t>Gl24</t>
   </si>
   <si>
-    <t>4.96</t>
-  </si>
-  <si>
     <t>Gl25</t>
   </si>
   <si>
@@ -331,9 +402,6 @@
     <t>Gl32</t>
   </si>
   <si>
-    <t>5.03</t>
-  </si>
-  <si>
     <t>Gl33</t>
   </si>
   <si>
@@ -343,10 +411,58 @@
     <t>Gl35</t>
   </si>
   <si>
-    <t>4.88</t>
-  </si>
-  <si>
     <t>Gl36</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>Gl27</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>Gl37</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>Gl17</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>5.04</t>
   </si>
 </sst>
 </file>
@@ -408,8 +524,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C70" totalsRowShown="0">
-  <autoFilter ref="A1:C70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C49" totalsRowShown="0">
+  <autoFilter ref="A1:C49"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="file_name" dataDxfId="0"/>
+    <tableColumn id="2" name="mean_diameter (μl)" dataDxfId="0"/>
+    <tableColumn id="3" name="cells_per_ml" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:C73" totalsRowShown="0">
+  <autoFilter ref="A1:C73"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="file_name" dataDxfId="0"/>
+    <tableColumn id="2" name="mean_diameter (μl)" dataDxfId="0"/>
+    <tableColumn id="3" name="cells_per_ml" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:C73" totalsRowShown="0">
+  <autoFilter ref="A1:C73"/>
   <tableColumns count="3">
     <tableColumn id="1" name="file_name" dataDxfId="0"/>
     <tableColumn id="2" name="mean_diameter (μl)" dataDxfId="0"/>
@@ -704,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -718,7 +858,7 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,8 +868,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,7 +883,7 @@
         <v>1499000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +894,7 @@
         <v>1576000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -759,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>1615000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1705000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -773,7 +916,7 @@
         <v>1772000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -784,7 +927,7 @@
         <v>1907000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -795,7 +938,7 @@
         <v>2349000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -806,7 +949,7 @@
         <v>3307000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -816,8 +959,11 @@
       <c r="C9" s="2">
         <v>4273000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -828,36 +974,42 @@
         <v>1372000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1615000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1996000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>2101000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -866,9 +1018,9 @@
         <v>2513000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -877,31 +1029,34 @@
         <v>3266000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>3041000</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>5227000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -910,564 +1065,1972 @@
         <v>1287000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1461000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1615000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1792000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3139000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3312000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1452000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1603000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1734000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2060000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2384000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2827000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4142000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1653000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1513000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1937000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2235000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2673000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3716000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1533000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1504000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1544000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1955000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2110000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2591000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3865000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2141000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2963000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5299000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7892000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11430000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16780000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24410000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1701000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2414000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3559000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6305000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9711000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17940000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25790000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2147000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4154000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5703000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7833000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>18250000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C27" s="2">
+        <v>1729000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2281000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6607000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10540000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15070000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1951000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4249000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5467000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9333000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2">
+        <v>13220000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>22620000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1133000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2268000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3282000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6058000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12720000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2">
+        <v>19480000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2">
+        <v>25620000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1656000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2143000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3007000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5844000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8075000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11710000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2">
+        <v>15530000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1932000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2374000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3277000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5286000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="2">
+        <v>8605000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10490000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14970000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1456000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1879000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5095000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="2">
+        <v>7324000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11230000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2">
+        <v>15500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1473000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2463000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4069000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7481000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19990000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>28740000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2054000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2087000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2784000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5066000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7602000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19430000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1382000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2384000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
-        <v>1461000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>3388000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2">
-        <v>1615000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>6646000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2">
-        <v>1792000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16520000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26080000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1081000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2338000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3348000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4438000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6863000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>14260000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2">
+        <v>21480000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2275000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3139000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3312000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C34" s="2">
+        <v>1136000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1954000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2766000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4816000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7368000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2">
+        <v>11220000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14590000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24340000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1407000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2254000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4011000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5756000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10590000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="2">
+        <v>14890000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2">
+        <v>24260000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1008000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1371000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2334000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5707000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8192000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2">
+        <v>15130000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2">
+        <v>19270000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1439000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2113000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4272000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6962000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="2">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18120000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1111000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1364000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2358000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5771000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="2">
+        <v>8632000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2">
-        <v>2141000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2963000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5299000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7892000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2">
-        <v>11430000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2">
-        <v>16780000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C72" s="2">
+        <v>15080000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2">
-        <v>24410000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1701000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2414000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3559000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6305000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9711000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="2">
-        <v>11450000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2">
-        <v>17940000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="2">
-        <v>25790000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2147000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2">
-        <v>4154000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="2">
-        <v>5703000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7833000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="2">
-        <v>13100000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="2">
-        <v>18250000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1473000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2463000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2">
-        <v>4069000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="2">
-        <v>7481000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="2">
-        <v>10900000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="2">
-        <v>19990000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2">
-        <v>28740000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2054000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2087000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2784000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="2">
-        <v>5066000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="2">
-        <v>7602000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="2">
-        <v>12500000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="2">
-        <v>19430000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1382000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2384000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3388000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6646000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="2">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="2">
-        <v>16520000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="2">
-        <v>26080000</v>
+      <c r="C73" s="2">
+        <v>20460000</v>
       </c>
     </row>
   </sheetData>
